--- a/model/SMsheet.xlsx
+++ b/model/SMsheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-26600" yWindow="6400" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="9040" yWindow="2320" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -270,31 +270,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Mean</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Relocation Accuracy</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -564,20 +540,39 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2091158296"/>
-        <c:axId val="2091359816"/>
+        <c:axId val="2056974552"/>
+        <c:axId val="2056276648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2091158296"/>
+        <c:axId val="2056974552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000"/>
+                  <a:t>Selection</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2091359816"/>
+        <c:crossAx val="2056276648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -585,7 +580,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2091359816"/>
+        <c:axId val="2056276648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -599,17 +594,12 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="2000"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Mean</a:t>
+                  <a:rPr lang="en-US" sz="2000"/>
+                  <a:t>Mean Accuracy (pixels)</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Distances</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -620,20 +610,16 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2091158296"/>
+        <c:crossAx val="2056974552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-        <c:showKeys val="1"/>
-        <c:spPr>
-          <a:ln w="3175" cmpd="sng"/>
-        </c:spPr>
-      </c:dTable>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -655,16 +641,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1010,8 +996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I47" sqref="I47:I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1952,7 +1938,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/model/SMsheet.xlsx
+++ b/model/SMsheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9040" yWindow="2320" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="820" yWindow="3000" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="42">
   <si>
     <t>=========  Results  ===========</t>
   </si>
@@ -111,20 +111,47 @@
     <t>Combined RTs               :</t>
   </si>
   <si>
-    <t>&gt; (run-analysis 50)</t>
-  </si>
-  <si>
     <t>rmse Value for Distances =</t>
   </si>
   <si>
     <t>rmse Value for RTs       =</t>
+  </si>
+  <si>
+    <t>&gt; (run-analysis 100)</t>
+  </si>
+  <si>
+    <t>noise = Math.min(base + scale * Math.exp(-activation), 8 )</t>
+  </si>
+  <si>
+    <t>base = 0</t>
+  </si>
+  <si>
+    <t>scale = .1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    :ans 0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    :rt -0.5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    :bll 0.8</t>
+  </si>
+  <si>
+    <t>double base = .0;</t>
+  </si>
+  <si>
+    <t>double scale = .1;</t>
+  </si>
+  <si>
+    <t>double noise = Math.min(base + scale * Math.exp(-activation) + numberOfObjects/200.0 , 0.1 );</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -148,6 +175,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -166,7 +199,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="39">
+  <cellStyleXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -206,11 +239,36 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="39">
+  <cellStyles count="61">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -230,6 +288,17 @@
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -249,6 +318,17 @@
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -277,8 +357,36 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="4"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Model 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cmpd="sng">
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$26:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>50.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>74.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
           <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:tx>
             <c:v>Human 2</c:v>
           </c:tx>
@@ -289,139 +397,15 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$34:$H$34</c:f>
+              <c:f>Sheet1!$B$25:$C$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>49.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>61.1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Human 3</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="6350" cmpd="sng"/>
-          </c:spPr>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$35:$H$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>56.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>76.7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>87.1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Human 4</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="6350" cmpd="sng"/>
-          </c:spPr>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$36:$H$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>67.7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>82.9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>105.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>110.2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>Human 5</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="6350" cmpd="sng"/>
-          </c:spPr>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$37:$H$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>76.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>98.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>122.7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>135.9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>132.6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:v>Model 2</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="9525" cmpd="sng">
-              <a:prstDash val="dash"/>
-            </a:ln>
-          </c:spPr>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$38:$H$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>52.8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>75.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -430,7 +414,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
-          <c:order val="5"/>
+          <c:order val="2"/>
           <c:tx>
             <c:v>Model 3</c:v>
           </c:tx>
@@ -441,18 +425,47 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$39:$H$39</c:f>
+              <c:f>Sheet1!$D$26:$F$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>48.7</c:v>
+                  <c:v>55.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>74.9</c:v>
+                  <c:v>74.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>93.3</c:v>
+                  <c:v>94.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Human 3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="6350" cmpd="sng"/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$25:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>56.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>87.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -461,7 +474,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
-          <c:order val="6"/>
+          <c:order val="4"/>
           <c:tx>
             <c:v>Model 4</c:v>
           </c:tx>
@@ -472,21 +485,53 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$40:$H$40</c:f>
+              <c:f>Sheet1!$G$26:$J$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>56.8</c:v>
+                  <c:v>58.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>82.6</c:v>
+                  <c:v>80.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>98.2</c:v>
+                  <c:v>95.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>109.3</c:v>
+                  <c:v>112.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Human 4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="6350" cmpd="sng"/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$25:$J$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>67.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>105.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>110.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -495,7 +540,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
-          <c:order val="7"/>
+          <c:order val="6"/>
           <c:tx>
             <c:v>Model 5</c:v>
           </c:tx>
@@ -506,24 +551,59 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$41:$H$41</c:f>
+              <c:f>Sheet1!$K$26:$O$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>56.4</c:v>
+                  <c:v>61.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>79.8</c:v>
+                  <c:v>81.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>101.1</c:v>
+                  <c:v>100.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>107.9</c:v>
+                  <c:v>115.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>121.3</c:v>
+                  <c:v>131.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>Human 5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="6350" cmpd="sng"/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$25:$O$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>76.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>122.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>135.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>132.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -540,11 +620,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2056974552"/>
-        <c:axId val="2056276648"/>
+        <c:axId val="2081791176"/>
+        <c:axId val="2081796648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2056974552"/>
+        <c:axId val="2081791176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -572,7 +652,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2056276648"/>
+        <c:crossAx val="2081796648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -580,7 +660,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2056276648"/>
+        <c:axId val="2081796648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -610,7 +690,388 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2056974552"/>
+        <c:crossAx val="2081791176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln w="3175" cmpd="sng">
+      <a:prstDash val="sysDot"/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Model 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cmpd="sng">
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$70:$C$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>48.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>73.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Human 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="6350" cmpd="sng">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$25:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>49.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Model 3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cmpd="sng">
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$70:$F$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>49.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>73.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Human 3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="6350" cmpd="sng"/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$25:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>56.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>87.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Model 4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cmpd="sng">
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$70:$J$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>49.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>117.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Human 4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="6350" cmpd="sng"/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$25:$J$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>67.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>105.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>110.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>Model 5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cmpd="sng">
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$70:$O$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>51.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>78.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>115.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>133.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>Human 5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="6350" cmpd="sng"/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$25:$O$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>76.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>122.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>135.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>132.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2081879016"/>
+        <c:axId val="2081884488"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2081879016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000"/>
+                  <a:t>Selection</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2081884488"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2081884488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000"/>
+                  <a:t>Mean Accuracy (pixels)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2081879016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -641,16 +1102,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -664,6 +1125,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -994,10 +1487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ41"/>
+  <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47:I48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1005,10 +1498,15 @@
     <col min="1" max="1" width="35.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:43" ht="23">
       <c r="A1" t="s">
-        <v>30</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
     </row>
     <row r="4" spans="1:43">
       <c r="A4" t="s">
@@ -1161,130 +1659,130 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>46.2</v>
+        <v>47.3</v>
       </c>
       <c r="C10">
-        <v>58.8</v>
+        <v>54.1</v>
       </c>
       <c r="D10">
-        <v>53.3</v>
+        <v>50.6</v>
       </c>
       <c r="E10">
-        <v>65.8</v>
+        <v>65.3</v>
       </c>
       <c r="F10">
-        <v>82.1</v>
+        <v>77</v>
       </c>
       <c r="G10">
-        <v>79.7</v>
+        <v>80</v>
       </c>
       <c r="H10">
-        <v>47.6</v>
+        <v>54.5</v>
       </c>
       <c r="I10">
-        <v>47.2</v>
+        <v>51</v>
       </c>
       <c r="J10">
-        <v>51.2</v>
+        <v>60.4</v>
       </c>
       <c r="K10">
-        <v>77.900000000000006</v>
+        <v>72.599999999999994</v>
       </c>
       <c r="L10">
-        <v>67.900000000000006</v>
+        <v>71.5</v>
       </c>
       <c r="M10">
-        <v>78.900000000000006</v>
+        <v>79.3</v>
       </c>
       <c r="N10">
-        <v>93.8</v>
+        <v>84.8</v>
       </c>
       <c r="O10">
-        <v>86.5</v>
+        <v>95.2</v>
       </c>
       <c r="P10">
-        <v>99.6</v>
+        <v>101.9</v>
       </c>
       <c r="Q10">
-        <v>53.7</v>
+        <v>57.7</v>
       </c>
       <c r="R10">
-        <v>66.5</v>
+        <v>55.2</v>
       </c>
       <c r="S10">
-        <v>50.2</v>
+        <v>63.6</v>
       </c>
       <c r="T10">
-        <v>72.400000000000006</v>
+        <v>77.099999999999994</v>
       </c>
       <c r="U10">
-        <v>90.2</v>
+        <v>82</v>
       </c>
       <c r="V10">
-        <v>85.2</v>
+        <v>81.099999999999994</v>
       </c>
       <c r="W10">
-        <v>93.1</v>
+        <v>87.4</v>
       </c>
       <c r="X10">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="Y10">
-        <v>97.6</v>
+        <v>103.8</v>
       </c>
       <c r="Z10">
-        <v>112.2</v>
+        <v>104.5</v>
       </c>
       <c r="AA10">
-        <v>106.4</v>
+        <v>117.9</v>
       </c>
       <c r="AB10">
-        <v>109.3</v>
+        <v>116.2</v>
       </c>
       <c r="AC10">
-        <v>50.2</v>
+        <v>59.4</v>
       </c>
       <c r="AD10">
-        <v>54.6</v>
+        <v>58.9</v>
       </c>
       <c r="AE10">
-        <v>64.3</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="AF10">
-        <v>76</v>
+        <v>79.3</v>
       </c>
       <c r="AG10">
-        <v>78.599999999999994</v>
+        <v>75.400000000000006</v>
       </c>
       <c r="AH10">
-        <v>84.8</v>
+        <v>90.7</v>
       </c>
       <c r="AI10">
-        <v>96.8</v>
+        <v>96.5</v>
       </c>
       <c r="AJ10">
-        <v>95.9</v>
+        <v>104.3</v>
       </c>
       <c r="AK10">
-        <v>110.6</v>
+        <v>100.5</v>
       </c>
       <c r="AL10">
-        <v>101.1</v>
+        <v>108.5</v>
       </c>
       <c r="AM10">
-        <v>111.5</v>
+        <v>117</v>
       </c>
       <c r="AN10">
-        <v>111.1</v>
+        <v>121</v>
       </c>
       <c r="AO10">
-        <v>127.3</v>
+        <v>129.5</v>
       </c>
       <c r="AP10">
-        <v>117.2</v>
+        <v>130.80000000000001</v>
       </c>
       <c r="AQ10">
-        <v>119.5</v>
+        <v>134.1</v>
       </c>
     </row>
     <row r="12" spans="1:43">
@@ -1428,146 +1926,146 @@
         <v>11</v>
       </c>
       <c r="B14">
+        <v>1.5</v>
+      </c>
+      <c r="C14">
+        <v>1.6</v>
+      </c>
+      <c r="D14">
+        <v>1.6</v>
+      </c>
+      <c r="E14">
         <v>1.8</v>
       </c>
-      <c r="C14">
+      <c r="F14">
+        <v>1.9</v>
+      </c>
+      <c r="G14">
+        <v>1.9</v>
+      </c>
+      <c r="H14">
+        <v>1.6</v>
+      </c>
+      <c r="I14">
+        <v>1.6</v>
+      </c>
+      <c r="J14">
+        <v>1.7</v>
+      </c>
+      <c r="K14">
         <v>1.8</v>
       </c>
-      <c r="D14">
+      <c r="L14">
+        <v>1.8</v>
+      </c>
+      <c r="M14">
         <v>1.9</v>
       </c>
-      <c r="E14">
+      <c r="N14">
         <v>2</v>
       </c>
-      <c r="F14">
-        <v>2.1</v>
-      </c>
-      <c r="G14">
-        <v>2.1</v>
-      </c>
-      <c r="H14">
+      <c r="O14">
+        <v>2</v>
+      </c>
+      <c r="P14">
+        <v>2.1</v>
+      </c>
+      <c r="Q14">
+        <v>1.6</v>
+      </c>
+      <c r="R14">
+        <v>1.6</v>
+      </c>
+      <c r="S14">
+        <v>1.6</v>
+      </c>
+      <c r="T14">
         <v>1.8</v>
       </c>
-      <c r="I14">
+      <c r="U14">
         <v>1.9</v>
       </c>
-      <c r="J14">
+      <c r="V14">
         <v>1.9</v>
       </c>
-      <c r="K14">
-        <v>2.1</v>
-      </c>
-      <c r="L14">
-        <v>2.1</v>
-      </c>
-      <c r="M14">
-        <v>2.1</v>
-      </c>
-      <c r="N14">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="O14">
+      <c r="W14">
+        <v>2</v>
+      </c>
+      <c r="X14">
+        <v>2</v>
+      </c>
+      <c r="Y14">
+        <v>2.1</v>
+      </c>
+      <c r="Z14">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AA14">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AB14">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AC14">
+        <v>1.6</v>
+      </c>
+      <c r="AD14">
+        <v>1.6</v>
+      </c>
+      <c r="AE14">
+        <v>1.7</v>
+      </c>
+      <c r="AF14">
+        <v>1.9</v>
+      </c>
+      <c r="AG14">
+        <v>1.9</v>
+      </c>
+      <c r="AH14">
+        <v>1.9</v>
+      </c>
+      <c r="AI14">
+        <v>2.1</v>
+      </c>
+      <c r="AJ14">
+        <v>2.1</v>
+      </c>
+      <c r="AK14">
+        <v>2.1</v>
+      </c>
+      <c r="AL14">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AM14">
         <v>2.2999999999999998</v>
-      </c>
-      <c r="P14">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="Q14">
-        <v>1.8</v>
-      </c>
-      <c r="R14">
-        <v>2</v>
-      </c>
-      <c r="S14">
-        <v>1.9</v>
-      </c>
-      <c r="T14">
-        <v>2.1</v>
-      </c>
-      <c r="U14">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="V14">
-        <v>2.1</v>
-      </c>
-      <c r="W14">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="X14">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="Y14">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="Z14">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="AA14">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="AB14">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="AC14">
-        <v>1.8</v>
-      </c>
-      <c r="AD14">
-        <v>1.9</v>
-      </c>
-      <c r="AE14">
-        <v>2</v>
-      </c>
-      <c r="AF14">
-        <v>2.1</v>
-      </c>
-      <c r="AG14">
-        <v>2.1</v>
-      </c>
-      <c r="AH14">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="AI14">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="AJ14">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="AK14">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="AL14">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="AM14">
-        <v>2.4</v>
       </c>
       <c r="AN14">
         <v>2.2999999999999998</v>
       </c>
       <c r="AO14">
-        <v>2.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AP14">
-        <v>2.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AQ14">
-        <v>2.4</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17">
-        <v>14.46</v>
+        <v>12.23</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18">
-        <v>0.28000000000000003</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1684,46 +2182,46 @@
         <v>7</v>
       </c>
       <c r="B26">
-        <v>52.8</v>
+        <v>50.7</v>
       </c>
       <c r="C26">
-        <v>75.900000000000006</v>
+        <v>74.099999999999994</v>
       </c>
       <c r="D26">
-        <v>48.7</v>
+        <v>55.3</v>
       </c>
       <c r="E26">
-        <v>74.900000000000006</v>
+        <v>74.5</v>
       </c>
       <c r="F26">
-        <v>93.3</v>
+        <v>94</v>
       </c>
       <c r="G26">
-        <v>56.8</v>
+        <v>58.8</v>
       </c>
       <c r="H26">
-        <v>82.6</v>
+        <v>80.099999999999994</v>
       </c>
       <c r="I26">
-        <v>98.2</v>
+        <v>95.1</v>
       </c>
       <c r="J26">
-        <v>109.3</v>
+        <v>112.8</v>
       </c>
       <c r="K26">
-        <v>56.4</v>
+        <v>61.8</v>
       </c>
       <c r="L26">
-        <v>79.8</v>
+        <v>81.8</v>
       </c>
       <c r="M26">
-        <v>101.1</v>
+        <v>100.4</v>
       </c>
       <c r="N26">
-        <v>107.9</v>
+        <v>115.5</v>
       </c>
       <c r="O26">
-        <v>121.3</v>
+        <v>131.5</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -1778,162 +2276,945 @@
         <v>29</v>
       </c>
       <c r="B28">
+        <v>1.6</v>
+      </c>
+      <c r="C28">
         <v>1.8</v>
       </c>
-      <c r="C28">
-        <v>2.1</v>
-      </c>
       <c r="D28">
+        <v>1.6</v>
+      </c>
+      <c r="E28">
+        <v>1.8</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <v>1.6</v>
+      </c>
+      <c r="H28">
         <v>1.9</v>
       </c>
-      <c r="E28">
-        <v>2.1</v>
-      </c>
-      <c r="F28">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="G28">
+      <c r="I28">
+        <v>2.1</v>
+      </c>
+      <c r="J28">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K28">
+        <v>1.6</v>
+      </c>
+      <c r="L28">
         <v>1.9</v>
       </c>
-      <c r="H28">
-        <v>2.1</v>
-      </c>
-      <c r="I28">
+      <c r="M28">
+        <v>2.1</v>
+      </c>
+      <c r="N28">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O28">
         <v>2.2999999999999998</v>
-      </c>
-      <c r="J28">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="K28">
-        <v>1.9</v>
-      </c>
-      <c r="L28">
-        <v>2.1</v>
-      </c>
-      <c r="M28">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="N28">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="O28">
-        <v>2.4</v>
       </c>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31">
-        <v>13.64</v>
+        <v>11.37</v>
       </c>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="23">
+      <c r="A45" t="s">
         <v>32</v>
       </c>
-      <c r="B32">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="34" spans="4:8">
-      <c r="D34">
+      <c r="C45" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="C46" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="C47" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:43">
+      <c r="A49" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:43">
+      <c r="A52" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:43">
+      <c r="A53" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53">
+        <v>49</v>
+      </c>
+      <c r="C53">
+        <v>51.1</v>
+      </c>
+      <c r="D53">
+        <v>49.4</v>
+      </c>
+      <c r="E53">
+        <v>57.2</v>
+      </c>
+      <c r="F53">
+        <v>60.7</v>
+      </c>
+      <c r="G53">
+        <v>65.3</v>
+      </c>
+      <c r="H53">
+        <v>52.6</v>
+      </c>
+      <c r="I53">
+        <v>57.7</v>
+      </c>
+      <c r="J53">
+        <v>59.1</v>
+      </c>
+      <c r="K53">
+        <v>79.5</v>
+      </c>
+      <c r="L53">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="M53">
+        <v>78.2</v>
+      </c>
+      <c r="N53">
+        <v>91.7</v>
+      </c>
+      <c r="O53">
+        <v>83.4</v>
+      </c>
+      <c r="P53">
+        <v>86.2</v>
+      </c>
+      <c r="Q53">
+        <v>66.3</v>
+      </c>
+      <c r="R53">
+        <v>67.3</v>
+      </c>
+      <c r="S53">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="T53">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="U53">
+        <v>84.3</v>
+      </c>
+      <c r="V53">
+        <v>84.5</v>
+      </c>
+      <c r="W53">
+        <v>106.5</v>
+      </c>
+      <c r="X53">
+        <v>101.3</v>
+      </c>
+      <c r="Y53">
+        <v>108.7</v>
+      </c>
+      <c r="Z53">
+        <v>106.8</v>
+      </c>
+      <c r="AA53">
+        <v>110.6</v>
+      </c>
+      <c r="AB53">
+        <v>113.2</v>
+      </c>
+      <c r="AC53">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="AD53">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="AE53">
+        <v>76.2</v>
+      </c>
+      <c r="AF53">
+        <v>91.2</v>
+      </c>
+      <c r="AG53">
+        <v>99</v>
+      </c>
+      <c r="AH53">
+        <v>103.9</v>
+      </c>
+      <c r="AI53">
+        <v>120.3</v>
+      </c>
+      <c r="AJ53">
+        <v>119.9</v>
+      </c>
+      <c r="AK53">
+        <v>127.8</v>
+      </c>
+      <c r="AL53">
+        <v>133.9</v>
+      </c>
+      <c r="AM53">
+        <v>137.4</v>
+      </c>
+      <c r="AN53">
+        <v>136.5</v>
+      </c>
+      <c r="AO53">
+        <v>131.4</v>
+      </c>
+      <c r="AP53">
+        <v>131</v>
+      </c>
+      <c r="AQ53">
+        <v>135.30000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:43">
+      <c r="A54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54">
+        <v>41.2</v>
+      </c>
+      <c r="C54">
+        <v>51</v>
+      </c>
+      <c r="D54">
+        <v>53.8</v>
+      </c>
+      <c r="E54">
+        <v>63.8</v>
+      </c>
+      <c r="F54">
+        <v>77.2</v>
+      </c>
+      <c r="G54">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="H54">
+        <v>45.8</v>
+      </c>
+      <c r="I54">
+        <v>44.3</v>
+      </c>
+      <c r="J54">
+        <v>57.5</v>
+      </c>
+      <c r="K54">
+        <v>68.8</v>
+      </c>
+      <c r="L54">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="M54">
+        <v>81.8</v>
+      </c>
+      <c r="N54">
+        <v>94.4</v>
+      </c>
+      <c r="O54">
+        <v>99.8</v>
+      </c>
+      <c r="P54">
+        <v>101</v>
+      </c>
+      <c r="Q54">
+        <v>43.8</v>
+      </c>
+      <c r="R54">
+        <v>51.5</v>
+      </c>
+      <c r="S54">
+        <v>53.8</v>
+      </c>
+      <c r="T54">
+        <v>74.3</v>
+      </c>
+      <c r="U54">
+        <v>76.7</v>
+      </c>
+      <c r="V54">
+        <v>74.2</v>
+      </c>
+      <c r="W54">
+        <v>96.4</v>
+      </c>
+      <c r="X54">
+        <v>100.4</v>
+      </c>
+      <c r="Y54">
+        <v>98.1</v>
+      </c>
+      <c r="Z54">
+        <v>117.5</v>
+      </c>
+      <c r="AA54">
+        <v>112.1</v>
+      </c>
+      <c r="AB54">
+        <v>121.8</v>
+      </c>
+      <c r="AC54">
+        <v>48.7</v>
+      </c>
+      <c r="AD54">
+        <v>50.7</v>
+      </c>
+      <c r="AE54">
+        <v>54.7</v>
+      </c>
+      <c r="AF54">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="AG54">
+        <v>75.2</v>
+      </c>
+      <c r="AH54">
+        <v>79</v>
+      </c>
+      <c r="AI54">
+        <v>95.3</v>
+      </c>
+      <c r="AJ54">
+        <v>101.5</v>
+      </c>
+      <c r="AK54">
+        <v>104.8</v>
+      </c>
+      <c r="AL54">
+        <v>111.7</v>
+      </c>
+      <c r="AM54">
+        <v>118.9</v>
+      </c>
+      <c r="AN54">
+        <v>115.8</v>
+      </c>
+      <c r="AO54">
+        <v>132.69999999999999</v>
+      </c>
+      <c r="AP54">
+        <v>136.19999999999999</v>
+      </c>
+      <c r="AQ54">
+        <v>132.19999999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:43">
+      <c r="A56" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:43">
+      <c r="A57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57">
+        <v>2.1</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+      <c r="D57">
+        <v>2.1</v>
+      </c>
+      <c r="E57">
+        <v>2.1</v>
+      </c>
+      <c r="F57">
+        <v>2.1</v>
+      </c>
+      <c r="G57">
+        <v>2.1</v>
+      </c>
+      <c r="H57">
+        <v>2.1</v>
+      </c>
+      <c r="I57">
+        <v>2.1</v>
+      </c>
+      <c r="J57">
+        <v>2.1</v>
+      </c>
+      <c r="K57">
+        <v>2.1</v>
+      </c>
+      <c r="L57">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M57">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N57">
+        <v>2</v>
+      </c>
+      <c r="O57">
+        <v>2</v>
+      </c>
+      <c r="P57">
+        <v>2.1</v>
+      </c>
+      <c r="Q57">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R57">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="S57">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="T57">
+        <v>2.1</v>
+      </c>
+      <c r="U57">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="V57">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="W57">
+        <v>2.1</v>
+      </c>
+      <c r="X57">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Y57">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Z57">
+        <v>1.9</v>
+      </c>
+      <c r="AA57">
+        <v>1.9</v>
+      </c>
+      <c r="AB57">
+        <v>2</v>
+      </c>
+      <c r="AC57">
+        <v>2.5</v>
+      </c>
+      <c r="AD57">
+        <v>2.4</v>
+      </c>
+      <c r="AE57">
+        <v>2.4</v>
+      </c>
+      <c r="AF57">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AG57">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AH57">
+        <v>2.4</v>
+      </c>
+      <c r="AI57">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AJ57">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AK57">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AL57">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AM57">
+        <v>2.1</v>
+      </c>
+      <c r="AN57">
+        <v>2.1</v>
+      </c>
+      <c r="AO57">
+        <v>1.9</v>
+      </c>
+      <c r="AP57">
+        <v>1.9</v>
+      </c>
+      <c r="AQ57">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:43">
+      <c r="A58" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58">
+        <v>1.5</v>
+      </c>
+      <c r="C58">
+        <v>1.6</v>
+      </c>
+      <c r="D58">
+        <v>1.6</v>
+      </c>
+      <c r="E58">
+        <v>1.7</v>
+      </c>
+      <c r="F58">
+        <v>1.9</v>
+      </c>
+      <c r="G58">
+        <v>1.9</v>
+      </c>
+      <c r="H58">
+        <v>1.5</v>
+      </c>
+      <c r="I58">
+        <v>1.6</v>
+      </c>
+      <c r="J58">
+        <v>1.7</v>
+      </c>
+      <c r="K58">
+        <v>1.8</v>
+      </c>
+      <c r="L58">
+        <v>1.8</v>
+      </c>
+      <c r="M58">
+        <v>1.9</v>
+      </c>
+      <c r="N58">
+        <v>2</v>
+      </c>
+      <c r="O58">
+        <v>2.1</v>
+      </c>
+      <c r="P58">
+        <v>2.1</v>
+      </c>
+      <c r="Q58">
+        <v>1.5</v>
+      </c>
+      <c r="R58">
+        <v>1.6</v>
+      </c>
+      <c r="S58">
+        <v>1.7</v>
+      </c>
+      <c r="T58">
+        <v>1.8</v>
+      </c>
+      <c r="U58">
+        <v>1.9</v>
+      </c>
+      <c r="V58">
+        <v>1.9</v>
+      </c>
+      <c r="W58">
+        <v>2.1</v>
+      </c>
+      <c r="X58">
+        <v>2.1</v>
+      </c>
+      <c r="Y58">
+        <v>2.1</v>
+      </c>
+      <c r="Z58">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AA58">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AB58">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AC58">
+        <v>1.6</v>
+      </c>
+      <c r="AD58">
+        <v>1.6</v>
+      </c>
+      <c r="AE58">
+        <v>1.6</v>
+      </c>
+      <c r="AF58">
+        <v>1.9</v>
+      </c>
+      <c r="AG58">
+        <v>1.9</v>
+      </c>
+      <c r="AH58">
+        <v>1.9</v>
+      </c>
+      <c r="AI58">
+        <v>2</v>
+      </c>
+      <c r="AJ58">
+        <v>2.1</v>
+      </c>
+      <c r="AK58">
+        <v>2.1</v>
+      </c>
+      <c r="AL58">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AM58">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AN58">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AO58">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AP58">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AQ58">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:43">
+      <c r="A61" t="s">
+        <v>30</v>
+      </c>
+      <c r="B61">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:43">
+      <c r="A62" t="s">
+        <v>31</v>
+      </c>
+      <c r="B62">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="64" spans="1:43">
+      <c r="A64" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
+      <c r="A65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
+      <c r="A67" t="s">
+        <v>12</v>
+      </c>
+      <c r="B67" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67" t="s">
+        <v>15</v>
+      </c>
+      <c r="E67" t="s">
+        <v>16</v>
+      </c>
+      <c r="F67" t="s">
+        <v>17</v>
+      </c>
+      <c r="G67" t="s">
+        <v>18</v>
+      </c>
+      <c r="H67" t="s">
+        <v>19</v>
+      </c>
+      <c r="I67" t="s">
+        <v>20</v>
+      </c>
+      <c r="J67" t="s">
+        <v>21</v>
+      </c>
+      <c r="K67" t="s">
+        <v>22</v>
+      </c>
+      <c r="L67" t="s">
+        <v>23</v>
+      </c>
+      <c r="M67" t="s">
+        <v>24</v>
+      </c>
+      <c r="N67" t="s">
+        <v>25</v>
+      </c>
+      <c r="O67" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
+      <c r="A68" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
+      <c r="A69" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69">
         <v>49.8</v>
       </c>
-      <c r="E34">
+      <c r="C69">
         <v>61.1</v>
       </c>
-    </row>
-    <row r="35" spans="4:8">
-      <c r="D35">
+      <c r="D69">
         <v>56.5</v>
       </c>
-      <c r="E35">
+      <c r="E69">
         <v>76.7</v>
       </c>
-      <c r="F35">
+      <c r="F69">
         <v>87.1</v>
       </c>
-    </row>
-    <row r="36" spans="4:8">
-      <c r="D36">
+      <c r="G69">
         <v>67.7</v>
       </c>
-      <c r="E36">
+      <c r="H69">
         <v>82.9</v>
       </c>
-      <c r="F36">
+      <c r="I69">
         <v>105.5</v>
       </c>
-      <c r="G36">
+      <c r="J69">
         <v>110.2</v>
       </c>
-    </row>
-    <row r="37" spans="4:8">
-      <c r="D37">
+      <c r="K69">
         <v>76.099999999999994</v>
       </c>
-      <c r="E37">
+      <c r="L69">
         <v>98.1</v>
       </c>
-      <c r="F37">
+      <c r="M69">
         <v>122.7</v>
       </c>
-      <c r="G37">
+      <c r="N69">
         <v>135.9</v>
       </c>
-      <c r="H37">
+      <c r="O69">
         <v>132.6</v>
       </c>
     </row>
-    <row r="38" spans="4:8">
-      <c r="D38">
-        <v>52.8</v>
-      </c>
-      <c r="E38">
-        <v>75.900000000000006</v>
-      </c>
-    </row>
-    <row r="39" spans="4:8">
-      <c r="D39">
+    <row r="70" spans="1:15">
+      <c r="A70" t="s">
+        <v>7</v>
+      </c>
+      <c r="B70">
         <v>48.7</v>
       </c>
-      <c r="E39">
-        <v>74.900000000000006</v>
-      </c>
-      <c r="F39">
-        <v>93.3</v>
-      </c>
-    </row>
-    <row r="40" spans="4:8">
-      <c r="D40">
-        <v>56.8</v>
-      </c>
-      <c r="E40">
-        <v>82.6</v>
-      </c>
-      <c r="F40">
-        <v>98.2</v>
-      </c>
-      <c r="G40">
-        <v>109.3</v>
-      </c>
-    </row>
-    <row r="41" spans="4:8">
-      <c r="D41">
-        <v>56.4</v>
-      </c>
-      <c r="E41">
-        <v>79.8</v>
-      </c>
-      <c r="F41">
-        <v>101.1</v>
-      </c>
-      <c r="G41">
-        <v>107.9</v>
-      </c>
-      <c r="H41">
-        <v>121.3</v>
+      <c r="C70">
+        <v>73</v>
+      </c>
+      <c r="D70">
+        <v>49.2</v>
+      </c>
+      <c r="E70">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="F70">
+        <v>98.4</v>
+      </c>
+      <c r="G70">
+        <v>49.7</v>
+      </c>
+      <c r="H70">
+        <v>75</v>
+      </c>
+      <c r="I70">
+        <v>98.3</v>
+      </c>
+      <c r="J70">
+        <v>117.2</v>
+      </c>
+      <c r="K70">
+        <v>51.4</v>
+      </c>
+      <c r="L70">
+        <v>78.5</v>
+      </c>
+      <c r="M70">
+        <v>100.5</v>
+      </c>
+      <c r="N70">
+        <v>115.5</v>
+      </c>
+      <c r="O70">
+        <v>133.69999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
+      <c r="A71" t="s">
+        <v>28</v>
+      </c>
+      <c r="B71">
+        <v>2.1</v>
+      </c>
+      <c r="C71">
+        <v>2.1</v>
+      </c>
+      <c r="D71">
+        <v>2.1</v>
+      </c>
+      <c r="E71">
+        <v>2.1</v>
+      </c>
+      <c r="F71">
+        <v>2</v>
+      </c>
+      <c r="G71">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H71">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I71">
+        <v>2.1</v>
+      </c>
+      <c r="J71">
+        <v>2</v>
+      </c>
+      <c r="K71">
+        <v>2.4</v>
+      </c>
+      <c r="L71">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="M71">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N71">
+        <v>2.1</v>
+      </c>
+      <c r="O71">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
+      <c r="A72" t="s">
+        <v>29</v>
+      </c>
+      <c r="B72">
+        <v>1.6</v>
+      </c>
+      <c r="C72">
+        <v>1.8</v>
+      </c>
+      <c r="D72">
+        <v>1.6</v>
+      </c>
+      <c r="E72">
+        <v>1.8</v>
+      </c>
+      <c r="F72">
+        <v>2.1</v>
+      </c>
+      <c r="G72">
+        <v>1.6</v>
+      </c>
+      <c r="H72">
+        <v>1.9</v>
+      </c>
+      <c r="I72">
+        <v>2.1</v>
+      </c>
+      <c r="J72">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K72">
+        <v>1.6</v>
+      </c>
+      <c r="L72">
+        <v>1.9</v>
+      </c>
+      <c r="M72">
+        <v>2.1</v>
+      </c>
+      <c r="N72">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O72">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
+      <c r="A75" t="s">
+        <v>30</v>
+      </c>
+      <c r="B75">
+        <v>13.94</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
+      <c r="A76" t="s">
+        <v>31</v>
+      </c>
+      <c r="B76">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
+      <c r="A79" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
+      <c r="A80" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/model/SMsheet.xlsx
+++ b/model/SMsheet.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="3000" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="2380" yWindow="560" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="38">
   <si>
     <t>=========  Results  ===========</t>
   </si>
@@ -120,31 +120,19 @@
     <t>&gt; (run-analysis 100)</t>
   </si>
   <si>
-    <t>noise = Math.min(base + scale * Math.exp(-activation), 8 )</t>
-  </si>
-  <si>
-    <t>base = 0</t>
-  </si>
-  <si>
-    <t>scale = .1</t>
-  </si>
-  <si>
     <t xml:space="preserve">    :ans 0.5</t>
   </si>
   <si>
-    <t xml:space="preserve">    :rt -0.5 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    :bll 0.8</t>
-  </si>
-  <si>
-    <t>double base = .0;</t>
-  </si>
-  <si>
-    <t>double scale = .1;</t>
-  </si>
-  <si>
     <t>double noise = Math.min(base + scale * Math.exp(-activation) + numberOfObjects/200.0 , 0.1 );</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    :bll 0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    :rt -0.5  </t>
+  </si>
+  <si>
+    <t>double noise = Math.pow(numberOfObjects/2.0, 2) / 100.0 ;</t>
   </si>
 </sst>
 </file>
@@ -199,8 +187,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="61">
+  <cellStyleXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -268,7 +258,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="61">
+  <cellStyles count="63">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -299,6 +289,7 @@
     <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -329,6 +320,7 @@
     <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -374,10 +366,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>50.7</c:v>
+                  <c:v>55.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>74.1</c:v>
+                  <c:v>73.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -430,13 +422,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>55.3</c:v>
+                  <c:v>58.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>74.5</c:v>
+                  <c:v>82.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>94.0</c:v>
+                  <c:v>100.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -490,16 +482,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>58.8</c:v>
+                  <c:v>64.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>80.1</c:v>
+                  <c:v>85.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>95.1</c:v>
+                  <c:v>102.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>112.8</c:v>
+                  <c:v>115.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -556,19 +548,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>61.8</c:v>
+                  <c:v>71.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>81.8</c:v>
+                  <c:v>89.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100.4</c:v>
+                  <c:v>104.7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>115.5</c:v>
+                  <c:v>119.9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>131.5</c:v>
+                  <c:v>123.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -620,11 +612,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2081791176"/>
-        <c:axId val="2081796648"/>
+        <c:axId val="2125416776"/>
+        <c:axId val="2126631288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2081791176"/>
+        <c:axId val="2125416776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -652,7 +644,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2081796648"/>
+        <c:crossAx val="2126631288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -660,7 +652,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2081796648"/>
+        <c:axId val="2126631288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -690,7 +682,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2081791176"/>
+        <c:crossAx val="2125416776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -755,10 +747,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>48.7</c:v>
+                  <c:v>45.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>73.0</c:v>
+                  <c:v>70.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -811,13 +803,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>49.2</c:v>
+                  <c:v>58.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>73.9</c:v>
+                  <c:v>79.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>98.4</c:v>
+                  <c:v>95.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -871,16 +863,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>49.7</c:v>
+                  <c:v>66.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>75.0</c:v>
+                  <c:v>87.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>98.3</c:v>
+                  <c:v>102.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>117.2</c:v>
+                  <c:v>112.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -937,19 +929,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>51.4</c:v>
+                  <c:v>79.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78.5</c:v>
+                  <c:v>94.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100.5</c:v>
+                  <c:v>114.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>115.5</c:v>
+                  <c:v>121.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>133.7</c:v>
+                  <c:v>129.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1001,11 +993,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2081879016"/>
-        <c:axId val="2081884488"/>
+        <c:axId val="2126718952"/>
+        <c:axId val="2126724424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2081879016"/>
+        <c:axId val="2126718952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1033,7 +1025,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2081884488"/>
+        <c:crossAx val="2126724424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1041,7 +1033,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2081884488"/>
+        <c:axId val="2126724424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1071,7 +1063,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2081879016"/>
+        <c:crossAx val="2126718952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1103,15 +1095,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
+      <xdr:colOff>660400</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:rowOff>241300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1489,8 +1481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1659,130 +1651,130 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>47.3</v>
+        <v>50.1</v>
       </c>
       <c r="C10">
-        <v>54.1</v>
+        <v>54.9</v>
       </c>
       <c r="D10">
-        <v>50.6</v>
+        <v>60</v>
       </c>
       <c r="E10">
-        <v>65.3</v>
+        <v>69</v>
       </c>
       <c r="F10">
-        <v>77</v>
+        <v>73.5</v>
       </c>
       <c r="G10">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H10">
         <v>54.5</v>
       </c>
       <c r="I10">
-        <v>51</v>
+        <v>57.6</v>
       </c>
       <c r="J10">
-        <v>60.4</v>
+        <v>62.4</v>
       </c>
       <c r="K10">
-        <v>72.599999999999994</v>
+        <v>80.2</v>
       </c>
       <c r="L10">
-        <v>71.5</v>
+        <v>82.8</v>
       </c>
       <c r="M10">
-        <v>79.3</v>
+        <v>85.5</v>
       </c>
       <c r="N10">
-        <v>84.8</v>
+        <v>92</v>
       </c>
       <c r="O10">
-        <v>95.2</v>
+        <v>106.9</v>
       </c>
       <c r="P10">
+        <v>101.5</v>
+      </c>
+      <c r="Q10">
+        <v>58.4</v>
+      </c>
+      <c r="R10">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="S10">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="T10">
+        <v>78.8</v>
+      </c>
+      <c r="U10">
+        <v>90.3</v>
+      </c>
+      <c r="V10">
+        <v>87.2</v>
+      </c>
+      <c r="W10">
+        <v>97</v>
+      </c>
+      <c r="X10">
+        <v>104.5</v>
+      </c>
+      <c r="Y10">
+        <v>105.8</v>
+      </c>
+      <c r="Z10">
+        <v>115</v>
+      </c>
+      <c r="AA10">
+        <v>112.1</v>
+      </c>
+      <c r="AB10">
+        <v>119.3</v>
+      </c>
+      <c r="AC10">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="AD10">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="AE10">
+        <v>79</v>
+      </c>
+      <c r="AF10">
+        <v>87.8</v>
+      </c>
+      <c r="AG10">
+        <v>89.9</v>
+      </c>
+      <c r="AH10">
+        <v>89.2</v>
+      </c>
+      <c r="AI10">
+        <v>105.4</v>
+      </c>
+      <c r="AJ10">
         <v>101.9</v>
       </c>
-      <c r="Q10">
-        <v>57.7</v>
-      </c>
-      <c r="R10">
-        <v>55.2</v>
-      </c>
-      <c r="S10">
-        <v>63.6</v>
-      </c>
-      <c r="T10">
-        <v>77.099999999999994</v>
-      </c>
-      <c r="U10">
-        <v>82</v>
-      </c>
-      <c r="V10">
-        <v>81.099999999999994</v>
-      </c>
-      <c r="W10">
-        <v>87.4</v>
-      </c>
-      <c r="X10">
-        <v>94</v>
-      </c>
-      <c r="Y10">
-        <v>103.8</v>
-      </c>
-      <c r="Z10">
-        <v>104.5</v>
-      </c>
-      <c r="AA10">
-        <v>117.9</v>
-      </c>
-      <c r="AB10">
-        <v>116.2</v>
-      </c>
-      <c r="AC10">
-        <v>59.4</v>
-      </c>
-      <c r="AD10">
-        <v>58.9</v>
-      </c>
-      <c r="AE10">
-        <v>67.099999999999994</v>
-      </c>
-      <c r="AF10">
-        <v>79.3</v>
-      </c>
-      <c r="AG10">
-        <v>75.400000000000006</v>
-      </c>
-      <c r="AH10">
-        <v>90.7</v>
-      </c>
-      <c r="AI10">
-        <v>96.5</v>
-      </c>
-      <c r="AJ10">
-        <v>104.3</v>
-      </c>
       <c r="AK10">
-        <v>100.5</v>
+        <v>106.9</v>
       </c>
       <c r="AL10">
-        <v>108.5</v>
+        <v>118.7</v>
       </c>
       <c r="AM10">
-        <v>117</v>
+        <v>114.6</v>
       </c>
       <c r="AN10">
-        <v>121</v>
+        <v>126.5</v>
       </c>
       <c r="AO10">
-        <v>129.5</v>
+        <v>120.4</v>
       </c>
       <c r="AP10">
-        <v>130.80000000000001</v>
+        <v>127.6</v>
       </c>
       <c r="AQ10">
-        <v>134.1</v>
+        <v>122.9</v>
       </c>
     </row>
     <row r="12" spans="1:43">
@@ -1926,130 +1918,130 @@
         <v>11</v>
       </c>
       <c r="B14">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="C14">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="D14">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="E14">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="F14">
+        <v>2.1</v>
+      </c>
+      <c r="G14">
+        <v>2.1</v>
+      </c>
+      <c r="H14">
         <v>1.9</v>
       </c>
-      <c r="G14">
+      <c r="I14">
         <v>1.9</v>
       </c>
-      <c r="H14">
-        <v>1.6</v>
-      </c>
-      <c r="I14">
-        <v>1.6</v>
-      </c>
       <c r="J14">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="K14">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L14">
-        <v>1.8</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="M14">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N14">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="P14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Q14">
         <v>1.9</v>
       </c>
-      <c r="N14">
+      <c r="R14">
         <v>2</v>
       </c>
-      <c r="O14">
+      <c r="S14">
         <v>2</v>
       </c>
-      <c r="P14">
-        <v>2.1</v>
-      </c>
-      <c r="Q14">
-        <v>1.6</v>
-      </c>
-      <c r="R14">
-        <v>1.6</v>
-      </c>
-      <c r="S14">
-        <v>1.6</v>
-      </c>
       <c r="T14">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="U14">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="V14">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="W14">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="X14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Y14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Z14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AA14">
+        <v>2.4</v>
+      </c>
+      <c r="AB14">
+        <v>2.4</v>
+      </c>
+      <c r="AC14">
         <v>1.9</v>
       </c>
-      <c r="V14">
-        <v>1.9</v>
-      </c>
-      <c r="W14">
+      <c r="AD14">
         <v>2</v>
       </c>
-      <c r="X14">
+      <c r="AE14">
         <v>2</v>
       </c>
-      <c r="Y14">
-        <v>2.1</v>
-      </c>
-      <c r="Z14">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="AA14">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="AB14">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="AC14">
-        <v>1.6</v>
-      </c>
-      <c r="AD14">
-        <v>1.6</v>
-      </c>
-      <c r="AE14">
-        <v>1.7</v>
-      </c>
       <c r="AF14">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="AG14">
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AH14">
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AI14">
-        <v>2.1</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AJ14">
-        <v>2.1</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AK14">
-        <v>2.1</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AL14">
-        <v>2.2000000000000002</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AM14">
         <v>2.2999999999999998</v>
       </c>
       <c r="AN14">
-        <v>2.2999999999999998</v>
+        <v>2.4</v>
       </c>
       <c r="AO14">
         <v>2.2999999999999998</v>
       </c>
       <c r="AP14">
-        <v>2.2999999999999998</v>
+        <v>2.4</v>
       </c>
       <c r="AQ14">
-        <v>2.2999999999999998</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -2057,7 +2049,7 @@
         <v>30</v>
       </c>
       <c r="B17">
-        <v>12.23</v>
+        <v>10.37</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -2065,7 +2057,7 @@
         <v>31</v>
       </c>
       <c r="B18">
-        <v>0.41</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -2182,46 +2174,46 @@
         <v>7</v>
       </c>
       <c r="B26">
-        <v>50.7</v>
+        <v>55</v>
       </c>
       <c r="C26">
-        <v>74.099999999999994</v>
+        <v>73.8</v>
       </c>
       <c r="D26">
-        <v>55.3</v>
+        <v>58.2</v>
       </c>
       <c r="E26">
-        <v>74.5</v>
+        <v>82.8</v>
       </c>
       <c r="F26">
-        <v>94</v>
+        <v>100.1</v>
       </c>
       <c r="G26">
-        <v>58.8</v>
+        <v>64.5</v>
       </c>
       <c r="H26">
-        <v>80.099999999999994</v>
+        <v>85.4</v>
       </c>
       <c r="I26">
-        <v>95.1</v>
+        <v>102.4</v>
       </c>
       <c r="J26">
-        <v>112.8</v>
+        <v>115.5</v>
       </c>
       <c r="K26">
-        <v>61.8</v>
+        <v>71.3</v>
       </c>
       <c r="L26">
-        <v>81.8</v>
+        <v>89</v>
       </c>
       <c r="M26">
-        <v>100.4</v>
+        <v>104.7</v>
       </c>
       <c r="N26">
-        <v>115.5</v>
+        <v>119.9</v>
       </c>
       <c r="O26">
-        <v>131.5</v>
+        <v>123.6</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -2276,46 +2268,46 @@
         <v>29</v>
       </c>
       <c r="B28">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="C28">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="D28">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="E28">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="F28">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G28">
+        <v>1.9</v>
+      </c>
+      <c r="H28">
+        <v>2.1</v>
+      </c>
+      <c r="I28">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J28">
+        <v>2.4</v>
+      </c>
+      <c r="K28">
         <v>2</v>
       </c>
-      <c r="G28">
-        <v>1.6</v>
-      </c>
-      <c r="H28">
-        <v>1.9</v>
-      </c>
-      <c r="I28">
-        <v>2.1</v>
-      </c>
-      <c r="J28">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="K28">
-        <v>1.6</v>
-      </c>
       <c r="L28">
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="M28">
-        <v>2.1</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="N28">
-        <v>2.2000000000000002</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="O28">
-        <v>2.2999999999999998</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -2323,7 +2315,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>11.37</v>
+        <v>9.33</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -2331,50 +2323,35 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>38</v>
-      </c>
-      <c r="D34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>36</v>
-      </c>
-      <c r="D35" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D36" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="23">
       <c r="A45" t="s">
         <v>32</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="C46" t="s">
-        <v>34</v>
-      </c>
+      <c r="C45" s="2"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="C47" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="C47" s="3"/>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
@@ -2527,130 +2504,130 @@
         <v>9</v>
       </c>
       <c r="B54">
-        <v>41.2</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="C54">
-        <v>51</v>
+        <v>46.3</v>
       </c>
       <c r="D54">
-        <v>53.8</v>
+        <v>51.2</v>
       </c>
       <c r="E54">
-        <v>63.8</v>
+        <v>62.1</v>
       </c>
       <c r="F54">
-        <v>77.2</v>
+        <v>72.599999999999994</v>
       </c>
       <c r="G54">
-        <v>78.099999999999994</v>
+        <v>77.900000000000006</v>
       </c>
       <c r="H54">
-        <v>45.8</v>
+        <v>46.7</v>
       </c>
       <c r="I54">
-        <v>44.3</v>
+        <v>60.3</v>
       </c>
       <c r="J54">
-        <v>57.5</v>
+        <v>68.099999999999994</v>
       </c>
       <c r="K54">
-        <v>68.8</v>
+        <v>70.599999999999994</v>
       </c>
       <c r="L54">
-        <v>70.900000000000006</v>
+        <v>81.599999999999994</v>
       </c>
       <c r="M54">
-        <v>81.8</v>
+        <v>84.7</v>
       </c>
       <c r="N54">
+        <v>89.9</v>
+      </c>
+      <c r="O54">
+        <v>95.2</v>
+      </c>
+      <c r="P54">
+        <v>100.9</v>
+      </c>
+      <c r="Q54">
+        <v>55.5</v>
+      </c>
+      <c r="R54">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="S54">
+        <v>70.3</v>
+      </c>
+      <c r="T54">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="U54">
+        <v>87.6</v>
+      </c>
+      <c r="V54">
+        <v>94.6</v>
+      </c>
+      <c r="W54">
+        <v>103</v>
+      </c>
+      <c r="X54">
+        <v>105.2</v>
+      </c>
+      <c r="Y54">
+        <v>100.6</v>
+      </c>
+      <c r="Z54">
+        <v>110.5</v>
+      </c>
+      <c r="AA54">
+        <v>110.9</v>
+      </c>
+      <c r="AB54">
+        <v>116.2</v>
+      </c>
+      <c r="AC54">
+        <v>73</v>
+      </c>
+      <c r="AD54">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="AE54">
+        <v>84.4</v>
+      </c>
+      <c r="AF54">
+        <v>91.8</v>
+      </c>
+      <c r="AG54">
         <v>94.4</v>
       </c>
-      <c r="O54">
-        <v>99.8</v>
-      </c>
-      <c r="P54">
-        <v>101</v>
-      </c>
-      <c r="Q54">
-        <v>43.8</v>
-      </c>
-      <c r="R54">
-        <v>51.5</v>
-      </c>
-      <c r="S54">
-        <v>53.8</v>
-      </c>
-      <c r="T54">
-        <v>74.3</v>
-      </c>
-      <c r="U54">
-        <v>76.7</v>
-      </c>
-      <c r="V54">
-        <v>74.2</v>
-      </c>
-      <c r="W54">
-        <v>96.4</v>
-      </c>
-      <c r="X54">
-        <v>100.4</v>
-      </c>
-      <c r="Y54">
+      <c r="AH54">
         <v>98.1</v>
       </c>
-      <c r="Z54">
-        <v>117.5</v>
-      </c>
-      <c r="AA54">
-        <v>112.1</v>
-      </c>
-      <c r="AB54">
-        <v>121.8</v>
-      </c>
-      <c r="AC54">
-        <v>48.7</v>
-      </c>
-      <c r="AD54">
-        <v>50.7</v>
-      </c>
-      <c r="AE54">
-        <v>54.7</v>
-      </c>
-      <c r="AF54">
-        <v>81.400000000000006</v>
-      </c>
-      <c r="AG54">
-        <v>75.2</v>
-      </c>
-      <c r="AH54">
-        <v>79</v>
-      </c>
       <c r="AI54">
-        <v>95.3</v>
+        <v>114.4</v>
       </c>
       <c r="AJ54">
-        <v>101.5</v>
+        <v>108.1</v>
       </c>
       <c r="AK54">
-        <v>104.8</v>
+        <v>120</v>
       </c>
       <c r="AL54">
-        <v>111.7</v>
+        <v>124</v>
       </c>
       <c r="AM54">
-        <v>118.9</v>
+        <v>119</v>
       </c>
       <c r="AN54">
-        <v>115.8</v>
+        <v>121.5</v>
       </c>
       <c r="AO54">
-        <v>132.69999999999999</v>
+        <v>127.8</v>
       </c>
       <c r="AP54">
-        <v>136.19999999999999</v>
+        <v>129.69999999999999</v>
       </c>
       <c r="AQ54">
-        <v>132.19999999999999</v>
+        <v>131.30000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:43">
@@ -2794,130 +2771,130 @@
         <v>11</v>
       </c>
       <c r="B58">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="C58">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="D58">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="E58">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="F58">
+        <v>2.1</v>
+      </c>
+      <c r="G58">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H58">
         <v>1.9</v>
       </c>
-      <c r="G58">
+      <c r="I58">
         <v>1.9</v>
       </c>
-      <c r="H58">
-        <v>1.5</v>
-      </c>
-      <c r="I58">
-        <v>1.6</v>
-      </c>
       <c r="J58">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="K58">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L58">
-        <v>1.8</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="M58">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N58">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O58">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="P58">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Q58">
         <v>1.9</v>
       </c>
-      <c r="N58">
+      <c r="R58">
         <v>2</v>
       </c>
-      <c r="O58">
-        <v>2.1</v>
-      </c>
-      <c r="P58">
-        <v>2.1</v>
-      </c>
-      <c r="Q58">
-        <v>1.5</v>
-      </c>
-      <c r="R58">
-        <v>1.6</v>
-      </c>
       <c r="S58">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="T58">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="U58">
+        <v>2.1</v>
+      </c>
+      <c r="V58">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="W58">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="X58">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Y58">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Z58">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AA58">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AB58">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AC58">
         <v>1.9</v>
       </c>
-      <c r="V58">
-        <v>1.9</v>
-      </c>
-      <c r="W58">
-        <v>2.1</v>
-      </c>
-      <c r="X58">
-        <v>2.1</v>
-      </c>
-      <c r="Y58">
-        <v>2.1</v>
-      </c>
-      <c r="Z58">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="AA58">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="AB58">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="AC58">
-        <v>1.6</v>
-      </c>
       <c r="AD58">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AE58">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AF58">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="AG58">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="AH58">
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AI58">
-        <v>2</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AJ58">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AK58">
-        <v>2.1</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AL58">
-        <v>2.2000000000000002</v>
+        <v>2.4</v>
       </c>
       <c r="AM58">
-        <v>2.2000000000000002</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AN58">
-        <v>2.2000000000000002</v>
+        <v>2.4</v>
       </c>
       <c r="AO58">
-        <v>2.2999999999999998</v>
+        <v>2.4</v>
       </c>
       <c r="AP58">
-        <v>2.2999999999999998</v>
+        <v>2.4</v>
       </c>
       <c r="AQ58">
-        <v>2.2999999999999998</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="61" spans="1:43">
@@ -2925,7 +2902,7 @@
         <v>30</v>
       </c>
       <c r="B61">
-        <v>14.6</v>
+        <v>7.88</v>
       </c>
     </row>
     <row r="62" spans="1:43">
@@ -2933,7 +2910,7 @@
         <v>31</v>
       </c>
       <c r="B62">
-        <v>0.41</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="64" spans="1:43">
@@ -3050,46 +3027,46 @@
         <v>7</v>
       </c>
       <c r="B70">
-        <v>48.7</v>
+        <v>45.4</v>
       </c>
       <c r="C70">
-        <v>73</v>
+        <v>70.900000000000006</v>
       </c>
       <c r="D70">
-        <v>49.2</v>
+        <v>58.4</v>
       </c>
       <c r="E70">
-        <v>73.900000000000006</v>
+        <v>79</v>
       </c>
       <c r="F70">
-        <v>98.4</v>
+        <v>95.3</v>
       </c>
       <c r="G70">
-        <v>49.7</v>
+        <v>66.900000000000006</v>
       </c>
       <c r="H70">
-        <v>75</v>
+        <v>87.8</v>
       </c>
       <c r="I70">
-        <v>98.3</v>
+        <v>102.9</v>
       </c>
       <c r="J70">
-        <v>117.2</v>
+        <v>112.6</v>
       </c>
       <c r="K70">
-        <v>51.4</v>
+        <v>79.5</v>
       </c>
       <c r="L70">
-        <v>78.5</v>
+        <v>94.8</v>
       </c>
       <c r="M70">
-        <v>100.5</v>
+        <v>114.2</v>
       </c>
       <c r="N70">
-        <v>115.5</v>
+        <v>121.5</v>
       </c>
       <c r="O70">
-        <v>133.69999999999999</v>
+        <v>129.6</v>
       </c>
     </row>
     <row r="71" spans="1:15">
@@ -3144,46 +3121,46 @@
         <v>29</v>
       </c>
       <c r="B72">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="C72">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="D72">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="E72">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="F72">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G72">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="H72">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="I72">
-        <v>2.1</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="J72">
-        <v>2.2000000000000002</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="K72">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="L72">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="M72">
-        <v>2.1</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="N72">
-        <v>2.2000000000000002</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="O72">
-        <v>2.2999999999999998</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="75" spans="1:15">
@@ -3191,7 +3168,7 @@
         <v>30</v>
       </c>
       <c r="B75">
-        <v>13.94</v>
+        <v>6.21</v>
       </c>
     </row>
     <row r="76" spans="1:15">
@@ -3199,26 +3176,30 @@
         <v>31</v>
       </c>
       <c r="B76">
-        <v>0.41</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="79" spans="1:15">
       <c r="A79" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="80" spans="1:15">
       <c r="A80" t="s">
-        <v>36</v>
+        <v>33</v>
+      </c>
+      <c r="C80" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/model/SMsheet.xlsx
+++ b/model/SMsheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2380" yWindow="560" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="7820" yWindow="760" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="43">
   <si>
     <t>=========  Results  ===========</t>
   </si>
@@ -123,9 +123,6 @@
     <t xml:space="preserve">    :ans 0.5</t>
   </si>
   <si>
-    <t>double noise = Math.min(base + scale * Math.exp(-activation) + numberOfObjects/200.0 , 0.1 );</t>
-  </si>
-  <si>
     <t xml:space="preserve">    :bll 0.5</t>
   </si>
   <si>
@@ -133,6 +130,24 @@
   </si>
   <si>
     <t>double noise = Math.pow(numberOfObjects/2.0, 2) / 100.0 ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    :bll 0.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    :rt -0.5 </t>
+  </si>
+  <si>
+    <t>double threshold = -0.5;</t>
+  </si>
+  <si>
+    <t>double base = .01;</t>
+  </si>
+  <si>
+    <t>double scale = .08;</t>
+  </si>
+  <si>
+    <t>double noise = base + scale * (activation &gt;= threshold ? Math.exp(-activation + threshold) : 0);</t>
   </si>
 </sst>
 </file>
@@ -187,8 +202,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="63">
+  <cellStyleXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -258,7 +275,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="63">
+  <cellStyles count="65">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -290,6 +307,7 @@
     <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -321,6 +339,7 @@
     <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -366,10 +385,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>55.0</c:v>
+                  <c:v>51.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>73.8</c:v>
+                  <c:v>70.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -422,13 +441,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>58.2</c:v>
+                  <c:v>57.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>82.8</c:v>
+                  <c:v>78.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100.1</c:v>
+                  <c:v>98.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -482,16 +501,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>64.5</c:v>
+                  <c:v>66.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>85.4</c:v>
+                  <c:v>87.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>102.4</c:v>
+                  <c:v>103.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>115.5</c:v>
+                  <c:v>110.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -548,19 +567,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>71.3</c:v>
+                  <c:v>74.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>89.0</c:v>
+                  <c:v>90.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>104.7</c:v>
+                  <c:v>110.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>119.9</c:v>
+                  <c:v>115.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>123.6</c:v>
+                  <c:v>115.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -612,11 +631,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2125416776"/>
-        <c:axId val="2126631288"/>
+        <c:axId val="2131432008"/>
+        <c:axId val="2126741560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2125416776"/>
+        <c:axId val="2131432008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -644,7 +663,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126631288"/>
+        <c:crossAx val="2126741560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -652,7 +671,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2126631288"/>
+        <c:axId val="2126741560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -682,7 +701,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2125416776"/>
+        <c:crossAx val="2131432008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -993,11 +1012,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2126718952"/>
-        <c:axId val="2126724424"/>
+        <c:axId val="2136960520"/>
+        <c:axId val="2132184088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2126718952"/>
+        <c:axId val="2136960520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1025,7 +1044,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126724424"/>
+        <c:crossAx val="2132184088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1033,7 +1052,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2126724424"/>
+        <c:axId val="2132184088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1063,7 +1082,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126718952"/>
+        <c:crossAx val="2136960520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1481,8 +1500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34:C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1651,130 +1670,130 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>50.1</v>
+        <v>46.5</v>
       </c>
       <c r="C10">
-        <v>54.9</v>
+        <v>49.4</v>
       </c>
       <c r="D10">
-        <v>60</v>
+        <v>57.3</v>
       </c>
       <c r="E10">
-        <v>69</v>
+        <v>63.2</v>
       </c>
       <c r="F10">
+        <v>73.7</v>
+      </c>
+      <c r="G10">
+        <v>73.8</v>
+      </c>
+      <c r="H10">
+        <v>46.6</v>
+      </c>
+      <c r="I10">
+        <v>58.8</v>
+      </c>
+      <c r="J10">
+        <v>65.5</v>
+      </c>
+      <c r="K10">
         <v>73.5</v>
       </c>
-      <c r="G10">
-        <v>79</v>
-      </c>
-      <c r="H10">
-        <v>54.5</v>
-      </c>
-      <c r="I10">
-        <v>57.6</v>
-      </c>
-      <c r="J10">
-        <v>62.4</v>
-      </c>
-      <c r="K10">
-        <v>80.2</v>
-      </c>
       <c r="L10">
-        <v>82.8</v>
+        <v>79.7</v>
       </c>
       <c r="M10">
-        <v>85.5</v>
+        <v>82.3</v>
       </c>
       <c r="N10">
-        <v>92</v>
+        <v>97.2</v>
       </c>
       <c r="O10">
-        <v>106.9</v>
+        <v>93.1</v>
       </c>
       <c r="P10">
-        <v>101.5</v>
+        <v>105.3</v>
       </c>
       <c r="Q10">
-        <v>58.4</v>
+        <v>58.1</v>
       </c>
       <c r="R10">
-        <v>68.599999999999994</v>
+        <v>70.599999999999994</v>
       </c>
       <c r="S10">
-        <v>66.599999999999994</v>
+        <v>71.900000000000006</v>
       </c>
       <c r="T10">
-        <v>78.8</v>
+        <v>87.5</v>
       </c>
       <c r="U10">
-        <v>90.3</v>
+        <v>87.5</v>
       </c>
       <c r="V10">
-        <v>87.2</v>
+        <v>88.3</v>
       </c>
       <c r="W10">
-        <v>97</v>
+        <v>100.4</v>
       </c>
       <c r="X10">
-        <v>104.5</v>
+        <v>105.7</v>
       </c>
       <c r="Y10">
-        <v>105.8</v>
+        <v>105.5</v>
       </c>
       <c r="Z10">
-        <v>115</v>
+        <v>109.7</v>
       </c>
       <c r="AA10">
-        <v>112.1</v>
+        <v>113.1</v>
       </c>
       <c r="AB10">
-        <v>119.3</v>
+        <v>107.5</v>
       </c>
       <c r="AC10">
-        <v>66.599999999999994</v>
+        <v>74</v>
       </c>
       <c r="AD10">
-        <v>68.400000000000006</v>
+        <v>75.5</v>
       </c>
       <c r="AE10">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AF10">
-        <v>87.8</v>
+        <v>88.6</v>
       </c>
       <c r="AG10">
-        <v>89.9</v>
+        <v>90.7</v>
       </c>
       <c r="AH10">
-        <v>89.2</v>
+        <v>92.7</v>
       </c>
       <c r="AI10">
-        <v>105.4</v>
+        <v>110.8</v>
       </c>
       <c r="AJ10">
-        <v>101.9</v>
+        <v>107.3</v>
       </c>
       <c r="AK10">
-        <v>106.9</v>
+        <v>113.6</v>
       </c>
       <c r="AL10">
-        <v>118.7</v>
+        <v>122.2</v>
       </c>
       <c r="AM10">
-        <v>114.6</v>
+        <v>112.8</v>
       </c>
       <c r="AN10">
-        <v>126.5</v>
+        <v>110.5</v>
       </c>
       <c r="AO10">
-        <v>120.4</v>
+        <v>110.4</v>
       </c>
       <c r="AP10">
-        <v>127.6</v>
+        <v>119.5</v>
       </c>
       <c r="AQ10">
-        <v>122.9</v>
+        <v>116.4</v>
       </c>
     </row>
     <row r="12" spans="1:43">
@@ -1918,85 +1937,85 @@
         <v>11</v>
       </c>
       <c r="B14">
+        <v>1.7</v>
+      </c>
+      <c r="C14">
+        <v>1.7</v>
+      </c>
+      <c r="D14">
+        <v>1.8</v>
+      </c>
+      <c r="E14">
         <v>1.9</v>
       </c>
-      <c r="C14">
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
         <v>1.9</v>
       </c>
-      <c r="D14">
+      <c r="H14">
+        <v>1.7</v>
+      </c>
+      <c r="I14">
+        <v>1.8</v>
+      </c>
+      <c r="J14">
+        <v>1.9</v>
+      </c>
+      <c r="K14">
         <v>2</v>
       </c>
-      <c r="E14">
-        <v>2.1</v>
-      </c>
-      <c r="F14">
-        <v>2.1</v>
-      </c>
-      <c r="G14">
-        <v>2.1</v>
-      </c>
-      <c r="H14">
+      <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="M14">
+        <v>2</v>
+      </c>
+      <c r="N14">
+        <v>2.1</v>
+      </c>
+      <c r="O14">
+        <v>2.1</v>
+      </c>
+      <c r="P14">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Q14">
+        <v>1.8</v>
+      </c>
+      <c r="R14">
         <v>1.9</v>
       </c>
-      <c r="I14">
+      <c r="S14">
         <v>1.9</v>
       </c>
-      <c r="J14">
-        <v>2</v>
-      </c>
-      <c r="K14">
-        <v>2.1</v>
-      </c>
-      <c r="L14">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="M14">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="N14">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="O14">
+      <c r="T14">
+        <v>2.1</v>
+      </c>
+      <c r="U14">
+        <v>2.1</v>
+      </c>
+      <c r="V14">
+        <v>2.1</v>
+      </c>
+      <c r="W14">
+        <v>2.1</v>
+      </c>
+      <c r="X14">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Y14">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Z14">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AA14">
         <v>2.2999999999999998</v>
       </c>
-      <c r="P14">
+      <c r="AB14">
         <v>2.2999999999999998</v>
-      </c>
-      <c r="Q14">
-        <v>1.9</v>
-      </c>
-      <c r="R14">
-        <v>2</v>
-      </c>
-      <c r="S14">
-        <v>2</v>
-      </c>
-      <c r="T14">
-        <v>2.1</v>
-      </c>
-      <c r="U14">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="V14">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="W14">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="X14">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="Y14">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="Z14">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="AA14">
-        <v>2.4</v>
-      </c>
-      <c r="AB14">
-        <v>2.4</v>
       </c>
       <c r="AC14">
         <v>1.9</v>
@@ -2011,16 +2030,16 @@
         <v>2.1</v>
       </c>
       <c r="AG14">
-        <v>2.2000000000000002</v>
+        <v>2.1</v>
       </c>
       <c r="AH14">
-        <v>2.2000000000000002</v>
+        <v>2.1</v>
       </c>
       <c r="AI14">
-        <v>2.2999999999999998</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AJ14">
-        <v>2.2999999999999998</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AK14">
         <v>2.2999999999999998</v>
@@ -2032,10 +2051,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="AN14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AO14">
         <v>2.4</v>
-      </c>
-      <c r="AO14">
-        <v>2.2999999999999998</v>
       </c>
       <c r="AP14">
         <v>2.4</v>
@@ -2049,7 +2068,7 @@
         <v>30</v>
       </c>
       <c r="B17">
-        <v>10.37</v>
+        <v>10.14</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -2057,7 +2076,7 @@
         <v>31</v>
       </c>
       <c r="B18">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -2174,46 +2193,46 @@
         <v>7</v>
       </c>
       <c r="B26">
-        <v>55</v>
+        <v>51.1</v>
       </c>
       <c r="C26">
-        <v>73.8</v>
+        <v>70.2</v>
       </c>
       <c r="D26">
-        <v>58.2</v>
+        <v>57</v>
       </c>
       <c r="E26">
-        <v>82.8</v>
+        <v>78.5</v>
       </c>
       <c r="F26">
-        <v>100.1</v>
+        <v>98.5</v>
       </c>
       <c r="G26">
-        <v>64.5</v>
+        <v>66.8</v>
       </c>
       <c r="H26">
-        <v>85.4</v>
+        <v>87.7</v>
       </c>
       <c r="I26">
-        <v>102.4</v>
+        <v>103.9</v>
       </c>
       <c r="J26">
-        <v>115.5</v>
+        <v>110.1</v>
       </c>
       <c r="K26">
-        <v>71.3</v>
+        <v>74.8</v>
       </c>
       <c r="L26">
-        <v>89</v>
+        <v>90.7</v>
       </c>
       <c r="M26">
-        <v>104.7</v>
+        <v>110.6</v>
       </c>
       <c r="N26">
-        <v>119.9</v>
+        <v>115.2</v>
       </c>
       <c r="O26">
-        <v>123.6</v>
+        <v>115.4</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -2268,19 +2287,19 @@
         <v>29</v>
       </c>
       <c r="B28">
+        <v>1.8</v>
+      </c>
+      <c r="C28">
         <v>1.9</v>
       </c>
-      <c r="C28">
-        <v>2.1</v>
-      </c>
       <c r="D28">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="E28">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>2.2999999999999998</v>
+        <v>2.1</v>
       </c>
       <c r="G28">
         <v>1.9</v>
@@ -2289,19 +2308,19 @@
         <v>2.1</v>
       </c>
       <c r="I28">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J28">
         <v>2.2999999999999998</v>
-      </c>
-      <c r="J28">
-        <v>2.4</v>
       </c>
       <c r="K28">
         <v>2</v>
       </c>
       <c r="L28">
-        <v>2.2000000000000002</v>
+        <v>2.1</v>
       </c>
       <c r="M28">
-        <v>2.2999999999999998</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N28">
         <v>2.2999999999999998</v>
@@ -2315,7 +2334,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>9.33</v>
+        <v>9.16</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -2323,37 +2342,50 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>37</v>
+      </c>
+      <c r="C34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="D36" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="23">
+        <v>38</v>
+      </c>
+      <c r="C36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="C37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="C38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="23">
       <c r="A45" t="s">
         <v>32</v>
       </c>
       <c r="C45" s="2"/>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:3">
       <c r="C47" s="3"/>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -3181,7 +3213,7 @@
     </row>
     <row r="79" spans="1:15">
       <c r="A79" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="80" spans="1:15">
@@ -3189,12 +3221,12 @@
         <v>33</v>
       </c>
       <c r="C80" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/model/SMsheet.xlsx
+++ b/model/SMsheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7820" yWindow="760" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="9420" yWindow="2540" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -631,11 +631,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2131432008"/>
-        <c:axId val="2126741560"/>
+        <c:axId val="2079114344"/>
+        <c:axId val="2064621832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2131432008"/>
+        <c:axId val="2079114344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -663,7 +663,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126741560"/>
+        <c:crossAx val="2064621832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -671,13 +671,12 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2126741560"/>
+        <c:axId val="2064621832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
         <c:title>
           <c:tx>
             <c:rich>
@@ -701,14 +700,23 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2131432008"/>
+        <c:crossAx val="2079114344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.487121212121212"/>
+          <c:y val="0.639458230986433"/>
+          <c:w val="0.281060606060606"/>
+          <c:h val="0.152570418493607"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1012,11 +1020,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2136960520"/>
-        <c:axId val="2132184088"/>
+        <c:axId val="2080100408"/>
+        <c:axId val="2123872280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2136960520"/>
+        <c:axId val="2080100408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1044,7 +1052,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2132184088"/>
+        <c:crossAx val="2123872280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1052,7 +1060,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2132184088"/>
+        <c:axId val="2123872280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1082,7 +1090,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2136960520"/>
+        <c:crossAx val="2080100408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1113,16 +1121,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>241300</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1500,8 +1508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34:C38"/>
+    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
